--- a/data/surge/surgeData011.xlsx
+++ b/data/surge/surgeData011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/ADA/CH4_011_Lake Jacksonville/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1430" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA6D7F8-CD60-4FFD-B795-EA055565A445}"/>
+  <xr:revisionPtr revIDLastSave="1431" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E30E44D-DE43-4EAA-BDA2-4720F0955988}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1288,6 +1288,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1300,16 +1304,12 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1667,168 +1667,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV8" sqref="BV8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.54296875" customWidth="1"/>
-    <col min="31" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5546875" customWidth="1"/>
+    <col min="31" max="31" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.453125" customWidth="1"/>
-    <col min="51" max="51" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.44140625" customWidth="1"/>
+    <col min="51" max="51" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="33" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="35" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="34" t="s">
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="30" t="s">
+      <c r="BU1" s="31"/>
+      <c r="BV1" s="31"/>
+      <c r="BW1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="BX1" s="30"/>
-      <c r="BY1" s="30"/>
-      <c r="BZ1" s="30"/>
-    </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BX1" s="32"/>
+      <c r="BY1" s="32"/>
+      <c r="BZ1" s="32"/>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>161</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="C3" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="30">
         <v>31.918728000000002</v>
       </c>
       <c r="E3">
@@ -2177,7 +2177,7 @@
         <v>0.53950231481481481</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>161</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="C4" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="30">
         <v>31.917483000000001</v>
       </c>
       <c r="E4">
@@ -2269,7 +2269,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>161</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="C5" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="30">
         <v>31.918623</v>
       </c>
       <c r="E5">
@@ -2361,7 +2361,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>161</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="C6" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="30">
         <v>31.911757000000001</v>
       </c>
       <c r="E6">
@@ -2453,7 +2453,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>161</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="C7" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="30">
         <v>31.907793000000002</v>
       </c>
       <c r="E7">
@@ -2545,7 +2545,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>161</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="C8" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="30">
         <v>31.902850000000001</v>
       </c>
       <c r="E8">
@@ -2637,7 +2637,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>161</v>
       </c>
@@ -2647,8 +2647,8 @@
       <c r="C9" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="37">
-        <v>93.910978</v>
+      <c r="D9" s="30">
+        <v>31.910978</v>
       </c>
       <c r="E9">
         <v>95.291386000000003</v>
@@ -2729,7 +2729,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>161</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="C10" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="30">
         <v>31.90616</v>
       </c>
       <c r="E10">
@@ -2821,7 +2821,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>161</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="C11" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="30">
         <v>31.89696</v>
       </c>
       <c r="E11">
@@ -2922,7 +2922,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>161</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="C12" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="30">
         <v>31.918040000000001</v>
       </c>
       <c r="E12">
@@ -3014,7 +3014,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>161</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="C13" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="30">
         <v>31.925882000000001</v>
       </c>
       <c r="E13">
@@ -3106,7 +3106,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>161</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="C14" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="30">
         <v>31.929521999999999</v>
       </c>
       <c r="E14">
@@ -3198,7 +3198,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>161</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="C15" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="30">
         <v>31.931730000000002</v>
       </c>
       <c r="E15">
@@ -3290,7 +3290,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>161</v>
       </c>
@@ -3300,7 +3300,7 @@
       <c r="C16" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="30">
         <v>31.937908</v>
       </c>
       <c r="E16">
@@ -3388,7 +3388,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>161</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="C17" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="30">
         <v>31.943937999999999</v>
       </c>
       <c r="E17">
@@ -3480,7 +3480,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>161</v>
       </c>
@@ -3517,14 +3517,14 @@
       <selection sqref="A1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>206</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>208</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>210</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -4303,37 +4303,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081A6BD0-DB1A-406D-A526-8D337C57DAFE}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>161</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>161</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>161</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>161</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>161</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>161</v>
       </c>
@@ -4558,14 +4558,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>144</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>145</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>146</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>147</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>148</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>149</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>150</v>
       </c>
@@ -4678,20 +4678,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -4733,9 +4719,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint.v3"/>
@@ -4780,6 +4780,7 @@
                 <xsd:element ref="ns6:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns6:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns6:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns6:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5098,6 +5099,11 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="44" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -5199,9 +5205,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5215,19 +5227,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5B668DC-1236-4D5D-AB79-A063EDF14FF8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82DE78A8-51E3-4A8E-891B-90D9E31F86D7}"/>
 </file>